--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H2">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N2">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q2">
-        <v>0.2449316740933334</v>
+        <v>0.2332263019</v>
       </c>
       <c r="R2">
-        <v>2.20438506684</v>
+        <v>2.0990367171</v>
       </c>
       <c r="S2">
-        <v>0.003444271792704384</v>
+        <v>0.002107340277893006</v>
       </c>
       <c r="T2">
-        <v>0.003444271792704384</v>
+        <v>0.002107340277893007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H3">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.736331</v>
       </c>
       <c r="O3">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P3">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q3">
-        <v>0.364305813228</v>
+        <v>0.669577454595</v>
       </c>
       <c r="R3">
-        <v>3.278752319052</v>
+        <v>6.026197091355</v>
       </c>
       <c r="S3">
-        <v>0.005122931695397189</v>
+        <v>0.006050036071155142</v>
       </c>
       <c r="T3">
-        <v>0.005122931695397189</v>
+        <v>0.006050036071155145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H4">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N4">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q4">
-        <v>0.2843906442533334</v>
+        <v>0.6574474075800001</v>
       </c>
       <c r="R4">
-        <v>2.559515798280001</v>
+        <v>5.91702666822</v>
       </c>
       <c r="S4">
-        <v>0.003999150692684725</v>
+        <v>0.005940433781708366</v>
       </c>
       <c r="T4">
-        <v>0.003999150692684725</v>
+        <v>0.005940433781708367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H5">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N5">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O5">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P5">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q5">
-        <v>0.06944666828133333</v>
+        <v>0.92811201426</v>
       </c>
       <c r="R5">
-        <v>0.625020014532</v>
+        <v>8.353008128339999</v>
       </c>
       <c r="S5">
-        <v>0.0009765711255766293</v>
+        <v>0.008386051719351582</v>
       </c>
       <c r="T5">
-        <v>0.000976571125576629</v>
+        <v>0.008386051719351586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H6">
         <v>11.379323</v>
       </c>
       <c r="I6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N6">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O6">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P6">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q6">
-        <v>11.67679114691222</v>
+        <v>6.049526268028888</v>
       </c>
       <c r="R6">
-        <v>105.09112032221</v>
+        <v>54.44573641226</v>
       </c>
       <c r="S6">
-        <v>0.1642010676058361</v>
+        <v>0.05466111781961518</v>
       </c>
       <c r="T6">
-        <v>0.1642010676058361</v>
+        <v>0.0546611178196152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H7">
         <v>11.379323</v>
       </c>
       <c r="I7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.736331</v>
       </c>
       <c r="O7">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P7">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q7">
         <v>17.367794142657</v>
@@ -883,10 +883,10 @@
         <v>156.310147283913</v>
       </c>
       <c r="S7">
-        <v>0.2442289413506202</v>
+        <v>0.1569284932137207</v>
       </c>
       <c r="T7">
-        <v>0.2442289413506202</v>
+        <v>0.1569284932137208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H8">
         <v>11.379323</v>
       </c>
       <c r="I8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N8">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O8">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P8">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q8">
-        <v>13.55794496311889</v>
+        <v>17.05315965481467</v>
       </c>
       <c r="R8">
-        <v>122.02150466807</v>
+        <v>153.478436893332</v>
       </c>
       <c r="S8">
-        <v>0.1906541796865132</v>
+        <v>0.1540855808850389</v>
       </c>
       <c r="T8">
-        <v>0.1906541796865132</v>
+        <v>0.1540855808850389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H9">
         <v>11.379323</v>
       </c>
       <c r="I9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N9">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O9">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P9">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q9">
-        <v>3.310777360142556</v>
+        <v>24.073777117756</v>
       </c>
       <c r="R9">
-        <v>29.796996241283</v>
+        <v>216.663994059804</v>
       </c>
       <c r="S9">
-        <v>0.04655672695528139</v>
+        <v>0.2175210932385248</v>
       </c>
       <c r="T9">
-        <v>0.04655672695528138</v>
+        <v>0.2175210932385248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H10">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N10">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O10">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P10">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q10">
-        <v>6.042067652683333</v>
+        <v>3.64985645922</v>
       </c>
       <c r="R10">
-        <v>54.37860887415</v>
+        <v>32.84870813298001</v>
       </c>
       <c r="S10">
-        <v>0.08496460599791092</v>
+        <v>0.03297865404708996</v>
       </c>
       <c r="T10">
-        <v>0.08496460599791092</v>
+        <v>0.03297865404708997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H11">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.736331</v>
       </c>
       <c r="O11">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P11">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q11">
-        <v>8.986834299554999</v>
+        <v>10.478499113061</v>
       </c>
       <c r="R11">
-        <v>80.88150869599501</v>
+        <v>94.306492017549</v>
       </c>
       <c r="S11">
-        <v>0.1263744266569239</v>
+        <v>0.09467955823562108</v>
       </c>
       <c r="T11">
-        <v>0.1263744266569239</v>
+        <v>0.09467955823562109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H12">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N12">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O12">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P12">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q12">
-        <v>7.015456529783335</v>
+        <v>10.288670907204</v>
       </c>
       <c r="R12">
-        <v>63.13910876805001</v>
+        <v>92.59803816483601</v>
       </c>
       <c r="S12">
-        <v>0.09865256965201219</v>
+        <v>0.09296434592541543</v>
       </c>
       <c r="T12">
-        <v>0.0986525696520122</v>
+        <v>0.09296434592541543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H13">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N13">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O13">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P13">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q13">
-        <v>1.713136814838333</v>
+        <v>14.524415138988</v>
       </c>
       <c r="R13">
-        <v>15.418231333545</v>
+        <v>130.719736250892</v>
       </c>
       <c r="S13">
-        <v>0.02409042779066077</v>
+        <v>0.1312368492999218</v>
       </c>
       <c r="T13">
-        <v>0.02409042779066077</v>
+        <v>0.1312368492999218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H14">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I14">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J14">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N14">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O14">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P14">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q14">
-        <v>0.1217906361955556</v>
+        <v>0.4404444727288888</v>
       </c>
       <c r="R14">
-        <v>1.09611572576</v>
+        <v>3.96400025456</v>
       </c>
       <c r="S14">
-        <v>0.001712641104571992</v>
+        <v>0.003979681408123957</v>
       </c>
       <c r="T14">
-        <v>0.001712641104571992</v>
+        <v>0.003979681408123959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H15">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I15">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J15">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.736331</v>
       </c>
       <c r="O15">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P15">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q15">
-        <v>0.181148628192</v>
+        <v>1.264487266392</v>
       </c>
       <c r="R15">
-        <v>1.630337653728</v>
+        <v>11.380385397528</v>
       </c>
       <c r="S15">
-        <v>0.002547343509892672</v>
+        <v>0.01142540496351576</v>
       </c>
       <c r="T15">
-        <v>0.002547343509892672</v>
+        <v>0.01142540496351576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H16">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I16">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J16">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N16">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O16">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P16">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q16">
-        <v>0.1414113451022223</v>
+        <v>1.241579849354667</v>
       </c>
       <c r="R16">
-        <v>1.27270210592</v>
+        <v>11.174218644192</v>
       </c>
       <c r="S16">
-        <v>0.001988550925097467</v>
+        <v>0.01121842263694282</v>
       </c>
       <c r="T16">
-        <v>0.001988550925097467</v>
+        <v>0.01121842263694282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H17">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I17">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J17">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N17">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O17">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P17">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q17">
-        <v>0.03453189116088889</v>
+        <v>1.752726015136</v>
       </c>
       <c r="R17">
-        <v>0.3107870204480001</v>
+        <v>15.774534136224</v>
       </c>
       <c r="S17">
-        <v>0.0004855934583163196</v>
+        <v>0.01583693647636146</v>
       </c>
       <c r="T17">
-        <v>0.0004855934583163196</v>
+        <v>0.01583693647636146</v>
       </c>
     </row>
   </sheetData>
